--- a/medicine/Mort/Famedio/Famedio.xlsx
+++ b/medicine/Mort/Famedio/Famedio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un famedio est un édifice ou un ensemble architectural de prestige destiné à la sépulture ou à la mémoire de personnages illustres (cénotaphe dans ce cas) que l'on trouve dans certains grands cimetières urbains d'Italie depuis le milieu du XIXe siècle. Il s'apparente en quelque sorte à un panthéon local.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce terme est formé en 1869[1] sur les mots latin fama, et aedes (temple), sur le modèle de cavaedium, littéralement « temple de la notoriété ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce terme est formé en 1869 sur les mots latin fama, et aedes (temple), sur le modèle de cavaedium, littéralement « temple de la notoriété ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le famedio construit en forme de temple généralement destiné aux sépultures de personnages célèbres,est généralement situé à l'entrée du cimetière ou en position d'évidence et jouxte souvent la chapelle du cimetière. Il indique également le lieu érigé à la mémoire des morts à la guerre.
 </t>
